--- a/Document/stripboard-PID-Arduino-shield-BOM.xlsx
+++ b/Document/stripboard-PID-Arduino-shield-BOM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="2" r:id="rId1"/>
@@ -672,7 +672,7 @@
         <v>0.66</v>
       </c>
       <c r="E2" s="5">
-        <f>D2*C2</f>
+        <f t="shared" ref="E2:E26" si="0">D2*C2</f>
         <v>0.66</v>
       </c>
     </row>
@@ -690,7 +690,7 @@
         <v>0.1</v>
       </c>
       <c r="E3" s="5">
-        <f>D3*C3</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -708,7 +708,7 @@
         <v>0.1</v>
       </c>
       <c r="E4" s="5">
-        <f>D4*C4</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         <v>0.1</v>
       </c>
       <c r="E5" s="5">
-        <f>D5*C5</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>0.1</v>
       </c>
       <c r="E6" s="5">
-        <f>D6*C6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="5">
-        <f>D7*C7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>0.1</v>
       </c>
       <c r="E8" s="5">
-        <f>D8*C8</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>0.15</v>
       </c>
       <c r="E9" s="5">
-        <f>D9*C9</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
@@ -816,7 +816,7 @@
         <v>0.24</v>
       </c>
       <c r="E10" s="5">
-        <f>D10*C10</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>0.39</v>
       </c>
       <c r="E11" s="5">
-        <f>D11*C11</f>
+        <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>0.01</v>
       </c>
       <c r="E12" s="5">
-        <f>D12*C12</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>0.01</v>
       </c>
       <c r="E13" s="5">
-        <f>D13*C13</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -888,7 +888,7 @@
         <v>0.01</v>
       </c>
       <c r="E14" s="5">
-        <f>D14*C14</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -906,7 +906,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="E15" s="5">
-        <f>D15*C15</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>0.04</v>
       </c>
       <c r="E16" s="5">
-        <f>D16*C16</f>
+        <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
@@ -942,7 +942,7 @@
         <v>0.02</v>
       </c>
       <c r="E17" s="5">
-        <f>D17*C17</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>0.03</v>
       </c>
       <c r="E18" s="5">
-        <f>D18*C18</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>0.02</v>
       </c>
       <c r="E19" s="5">
-        <f>D19*C19</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
     </row>
@@ -996,7 +996,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="E20" s="5">
-        <f>D20*C20</f>
+        <f t="shared" si="0"/>
         <v>1.1200000000000001</v>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>0.06</v>
       </c>
       <c r="E21" s="5">
-        <f>D21*C21</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>5.9</v>
       </c>
       <c r="E22" s="5">
-        <f>D22*C22</f>
+        <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>0.12</v>
       </c>
       <c r="E23" s="6">
-        <f>D23*C23</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>1.75</v>
       </c>
       <c r="E24" s="5">
-        <f>D24*C24</f>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>0.15</v>
       </c>
       <c r="E25" s="5">
-        <f>D25*C25</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>0.1</v>
       </c>
       <c r="E26" s="5">
-        <f>D26*C26</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
